--- a/model_exports/labels/2.0_False_False_5_1.xlsx
+++ b/model_exports/labels/2.0_False_False_5_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C731"/>
+  <dimension ref="A1:C733"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,37 +453,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t-494301276121731072</t>
+          <t>t-536414184204800001</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-536414184204800001</t>
+          <t>t-536957598252417024</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-536957598252417024</t>
+          <t>t-729342722264420352</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -492,20 +492,20 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-1025792018793021440</t>
+          <t>t-571473938481602560</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-500035862709948417</t>
+          <t>t-833214575512150018</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -518,7 +518,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-500685725482770433</t>
+          <t>t-498526651912032258</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -531,11 +531,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-501752547083059200</t>
+          <t>t-498546619508609024</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -544,7 +544,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-501732075599593472</t>
+          <t>t-498600191088271361</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -557,72 +557,72 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-508961106849574912</t>
+          <t>t-498638581536399361</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-509046359354511360</t>
+          <t>t-498641690949713920</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-509083951655174144</t>
+          <t>t-498643083517767681</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-509100730960314368</t>
+          <t>t-498648204872015872</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-509131102796414976</t>
+          <t>t-548786999432605696</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-509142523403862017</t>
+          <t>t-549031298929786880</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -635,11 +635,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-509208349511262208</t>
+          <t>t-585505175835648000</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -648,7 +648,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-509223264921878528</t>
+          <t>t-588022316359151617</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -661,7 +661,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-509224131880300544</t>
+          <t>t-588515231380348928</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -674,7 +674,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-629748063494537216</t>
+          <t>t-588525414441553920</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -687,11 +687,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-629757802915848193</t>
+          <t>t-588659923807907840</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -700,20 +700,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-759240736864870400</t>
+          <t>t-686267623462408192</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-1016827484665499650</t>
+          <t>t-830539164638703616</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -726,11 +726,11 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-1016832637904695296</t>
+          <t>t-854007994534813696</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -739,7 +739,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-1032695855143370753</t>
+          <t>t-900539002423562240</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -752,11 +752,11 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-1033108055162941440</t>
+          <t>t-900561270843334662</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -765,33 +765,33 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-497136108463865857</t>
+          <t>t-900690069668933632</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-977115036585021440</t>
+          <t>t-906729471721570304</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-575319219870437377</t>
+          <t>t-950310866641149952</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -804,7 +804,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-575466667171426304</t>
+          <t>t-960921688975331329</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -817,7 +817,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-583290347863851008</t>
+          <t>t-961028171192852485</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -830,7 +830,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-622509518346268672</t>
+          <t>t-961254369663602688</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -843,20 +843,20 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-641712529677398016</t>
+          <t>t-977248381662892039</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-686267623462408192</t>
+          <t>t-977294782048428032</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -869,24 +869,24 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-693851248634810368</t>
+          <t>t-982113517636435969</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-701855843747241986</t>
+          <t>t-982126921570893825</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -895,11 +895,11 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-707911328145477632</t>
+          <t>t-985145363618246656</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
@@ -908,7 +908,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-707931200627875840</t>
+          <t>t-985306564868354049</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -921,7 +921,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-708036809603698689</t>
+          <t>t-1022084644039258112</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -934,7 +934,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-708038329514790912</t>
+          <t>t-1024388985282383872</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -947,20 +947,20 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-708041345638776832</t>
+          <t>t-1036653090664075265</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-708249950530961408</t>
+          <t>t-1036716876020285440</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -973,37 +973,37 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-708273072424554497</t>
+          <t>t-1037295289206546433</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-708363296160747520</t>
+          <t>t-1037346167451992064</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-708384601509601280</t>
+          <t>t-1037351232451608577</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1012,46 +1012,46 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-708389352393539585</t>
+          <t>t-1037351271697657857</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-708444180087971840</t>
+          <t>t-1037367364231344128</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-709190294621835264</t>
+          <t>t-1037535909296709632</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-709228058117480449</t>
+          <t>t-1045002319061012482</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1064,20 +1064,20 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-709405662791372802</t>
+          <t>t-1045014122092482560</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-709892861110657024</t>
+          <t>t-1045027654121000962</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1090,7 +1090,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-710265095104946176</t>
+          <t>t-1045031106968465408</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1103,33 +1103,33 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-767329938500308992</t>
+          <t>t-1045065376575475712</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-867771334083923968</t>
+          <t>t-1052350536111013888</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-871116400701706241</t>
+          <t>t-513019810272137216</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1142,24 +1142,24 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-871834189787791364</t>
+          <t>t-548492147645640704</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-872075702203559936</t>
+          <t>t-832760057259384834</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1168,20 +1168,20 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-872158265681096708</t>
+          <t>t-832777578633064449</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-894637864561987584</t>
+          <t>t-985698935074369536</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1194,7 +1194,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-894643508547526657</t>
+          <t>t-1012224879310057472</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1207,7 +1207,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-894960674811596800</t>
+          <t>t-1024774127687749633</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1220,50 +1220,50 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-894974152540553216</t>
+          <t>t-517568253363634176</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-894976401597763584</t>
+          <t>t-518546395729379328</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-895262760954736640</t>
+          <t>t-519264703466315776</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-909776370410168323</t>
+          <t>t-533166195508117505</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -1272,7 +1272,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-956711426009202688</t>
+          <t>t-619895281761423360</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1285,111 +1285,111 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-965645492616036357</t>
+          <t>t-798458981752573952</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-965648872474398721</t>
+          <t>t-798478057195507713</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-965652051077357569</t>
+          <t>t-798508699044220928</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-966072585061625856</t>
+          <t>t-798530247192965122</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-966155045300588545</t>
+          <t>t-799607144802750464</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-966356829596016640</t>
+          <t>t-950256330316615680</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-966362179913093121</t>
+          <t>t-538858836992331776</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-966449125788090370</t>
+          <t>t-618483539777093632</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-966450069024239616</t>
+          <t>t-753345702428827652</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1402,7 +1402,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-966465261950906369</t>
+          <t>t-753345808620105728</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1415,11 +1415,11 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-966698278606856197</t>
+          <t>t-753350269518409728</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -1428,24 +1428,24 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-966704060270370817</t>
+          <t>t-770776256669372416</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-966706278016999424</t>
+          <t>t-788842589554343938</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -1454,11 +1454,11 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-966769885220163586</t>
+          <t>t-878279115006136321</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -1467,11 +1467,11 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-970872683402539011</t>
+          <t>t-885277243991314432</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -1480,7 +1480,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-973668678867746816</t>
+          <t>t-885292685086646272</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1493,20 +1493,20 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-973683665661198337</t>
+          <t>t-611838090278121474</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-1003697920015851520</t>
+          <t>t-612267884463673344</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1519,7 +1519,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-513019810272137216</t>
+          <t>t-612280320520425472</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1532,7 +1532,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-502103720327671808</t>
+          <t>t-619513224057061376</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1545,7 +1545,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-694987975168495617</t>
+          <t>t-710560200558653440</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1558,7 +1558,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-863147106038624256</t>
+          <t>t-908760840886767616</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1571,11 +1571,11 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-863168507747454977</t>
+          <t>t-917079758076370946</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" t="n">
         <v>1</v>
@@ -1584,20 +1584,20 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-985698935074369536</t>
+          <t>t-618395942002102272</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-1026541253037453312</t>
+          <t>t-1027386544536150016</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1610,33 +1610,33 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-1026546271392165888</t>
+          <t>t-580481361141743616</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-1026556162186117121</t>
+          <t>t-781902339066191873</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-1026678249978585088</t>
+          <t>t-836993229967015937</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1649,20 +1649,20 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-1026720073308925953</t>
+          <t>t-837317730147713024</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-1028077400779841537</t>
+          <t>t-868226298719633408</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1675,20 +1675,20 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-503508088964800513</t>
+          <t>t-966707160049766400</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-503608708635844608</t>
+          <t>t-967596306297483265</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1701,11 +1701,11 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-685243474623336449</t>
+          <t>t-967763105525764097</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -1714,7 +1714,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-687924478219685888</t>
+          <t>t-967806729865060352</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1727,33 +1727,33 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-687934498701455360</t>
+          <t>t-967827685333454849</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-746432967740882945</t>
+          <t>t-968065709459750912</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-765818303898058752</t>
+          <t>t-968790557077262336</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1766,20 +1766,20 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-801687875939078144</t>
+          <t>t-676490487717625856</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-893144326049419264</t>
+          <t>t-676517665188507650</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1792,7 +1792,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-928952366598037506</t>
+          <t>t-950852460532428800</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1805,24 +1805,24 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-992796128654524417</t>
+          <t>t-986144781721104384</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-753345702428827652</t>
+          <t>t-843394427347320833</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-753345808620105728</t>
+          <t>t-630358013853990912</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1844,46 +1844,46 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-753350269518409728</t>
+          <t>t-743488475874353153</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-770776256669372416</t>
+          <t>t-743501818358042625</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-858084101320056832</t>
+          <t>t-783792055160082432</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-858490544007327747</t>
+          <t>t-948484381987037185</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1896,7 +1896,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-878279115006136321</t>
+          <t>t-948486603227451392</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1909,7 +1909,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-903265153931608064</t>
+          <t>t-948505461745168384</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1922,7 +1922,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-1006061673487138817</t>
+          <t>t-948538940134477824</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1935,7 +1935,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-507504670592356352</t>
+          <t>t-948573984802689025</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1948,7 +1948,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-507919904779948032</t>
+          <t>t-986841970411823104</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1961,7 +1961,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-593974566453555201</t>
+          <t>t-682141165802631168</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1974,11 +1974,11 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-745031440031694848</t>
+          <t>t-542093659286429696</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -1987,89 +1987,89 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-903082857492566018</t>
+          <t>t-583930739512713216</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-908760840886767616</t>
+          <t>t-841795901764993024</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-923950718209359874</t>
+          <t>t-841877177624850434</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-923955178688188416</t>
+          <t>t-843361396750409728</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-923988304076464128</t>
+          <t>t-872693400436219904</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-984799310717030402</t>
+          <t>t-560163999057448960</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-985113601743704064</t>
+          <t>t-758769139905204224</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -2078,24 +2078,24 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-985197038014001152</t>
+          <t>t-952138958368051200</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-767772450964725760</t>
+          <t>t-952754172880863232</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-512768543989825541</t>
+          <t>t-560903834407817217</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -2117,7 +2117,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-611854657594486784</t>
+          <t>t-611996097129619456</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -2130,7 +2130,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-626070342885249024</t>
+          <t>t-692803310668087296</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -2143,7 +2143,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-641288611472654336</t>
+          <t>t-752638920505131008</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -2156,20 +2156,20 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-770209564532674560</t>
+          <t>t-987722164903251968</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-774727266823581696</t>
+          <t>t-1062308914354642944</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -2182,11 +2182,11 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-781902339066191873</t>
+          <t>t-595961510528180224</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135" t="n">
         <v>1</v>
@@ -2195,20 +2195,20 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-978735824383590400</t>
+          <t>t-602966767602831362</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-1031705611933831168</t>
+          <t>t-602969826642898945</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -2221,7 +2221,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-921072406919352320</t>
+          <t>t-603005702697713664</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -2234,7 +2234,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-921102349552275456</t>
+          <t>t-604735735154012160</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -2247,20 +2247,20 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-921122924505026560</t>
+          <t>t-736136204106616832</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-921266455856939008</t>
+          <t>t-737748026983354372</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -2273,20 +2273,20 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-921341244332113926</t>
+          <t>t-737752255571595264</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-921699631360176128</t>
+          <t>t-1040717985516859392</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -2299,7 +2299,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-540815358715002880</t>
+          <t>t-607855197835149312</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -2312,20 +2312,20 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-675047436134543360</t>
+          <t>t-612099863975583744</t>
         </is>
       </c>
       <c r="B145" t="n">
         <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-743488475874353153</t>
+          <t>t-612781430335082496</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -2338,7 +2338,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-743501818358042625</t>
+          <t>t-612783809587580928</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -2351,50 +2351,50 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-919827029243187200</t>
+          <t>t-759898000407662594</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-919919408797151233</t>
+          <t>t-891497407179104257</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-919933275422027776</t>
+          <t>t-948592886060380161</t>
         </is>
       </c>
       <c r="B150" t="n">
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-919961378433224704</t>
+          <t>t-961914631135617025</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -2403,7 +2403,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-920296060211400704</t>
+          <t>t-973190028435353600</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -2416,7 +2416,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-926892709188702208</t>
+          <t>t-1043269235474984960</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -2429,46 +2429,46 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-953935668199215104</t>
+          <t>t-694715871097278464</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-953991296196149248</t>
+          <t>t-753685864471863300</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-918095751158300672</t>
+          <t>t-858172777098072064</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-918096410427486208</t>
+          <t>t-858203574500818944</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2481,72 +2481,72 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-918845060900380672</t>
+          <t>t-858267644507631616</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-923100909521068032</t>
+          <t>t-858374877706932224</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-671527403521462276</t>
+          <t>t-858419995453292545</t>
         </is>
       </c>
       <c r="B160" t="n">
         <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-758769139905204224</t>
+          <t>t-695269003892228096</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-568623295811194880</t>
+          <t>t-730685047137800192</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-992180383449014272</t>
+          <t>t-730687533638619136</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2559,59 +2559,59 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-992184677086777345</t>
+          <t>t-734825704412446721</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-707957967094685696</t>
+          <t>t-734826990281187328</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-1014543719205400576</t>
+          <t>t-743015826601697281</t>
         </is>
       </c>
       <c r="B166" t="n">
         <v>1</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-1014578901966876672</t>
+          <t>t-758205502480388096</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-720931143055491072</t>
+          <t>t-758575120290091008</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2624,24 +2624,24 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-894558986925744129</t>
+          <t>t-946987966475448325</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-1060963338337902593</t>
+          <t>t-864813217943441412</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -2650,20 +2650,20 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-618586257753374720</t>
+          <t>t-781685141211058176</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-733769545261944833</t>
+          <t>t-1034302397882015745</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2676,33 +2676,33 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-878162982953402368</t>
+          <t>t-1034317413309919232</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-1001456003551031296</t>
+          <t>t-1034572709651533825</t>
         </is>
       </c>
       <c r="B174" t="n">
         <v>1</v>
       </c>
       <c r="C174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-756982430985166848</t>
+          <t>t-1034867901902319618</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -2715,7 +2715,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-756983738035077120</t>
+          <t>t-1034875857125425152</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2728,7 +2728,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-757172169029804034</t>
+          <t>t-1034886406957662208</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2741,24 +2741,24 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-636384018599030785</t>
+          <t>t-1034922534326738944</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-715573202714562561</t>
+          <t>t-1035345459290746880</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -2767,24 +2767,24 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-784477844240011265</t>
+          <t>t-1035480584934514690</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-806138760937271296</t>
+          <t>t-1035555438882897926</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -2793,24 +2793,24 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-859838431719030785</t>
+          <t>t-1036020306895413248</t>
         </is>
       </c>
       <c r="B182" t="n">
         <v>1</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-865899138726100992</t>
+          <t>t-1036935289485316096</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -2819,24 +2819,24 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-962803499766513664</t>
+          <t>t-1037072521940623360</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-994221853211267073</t>
+          <t>t-1037363401314455553</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -2845,72 +2845,72 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-1003953189820010496</t>
+          <t>t-1037404586812821505</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>1</v>
       </c>
       <c r="C186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-649543845269667840</t>
+          <t>t-1037450313920393218</t>
         </is>
       </c>
       <c r="B187" t="n">
         <v>1</v>
       </c>
       <c r="C187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-903173716451909632</t>
+          <t>t-1037475943969898497</t>
         </is>
       </c>
       <c r="B188" t="n">
         <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-1022049211108483072</t>
+          <t>t-1037727143038517248</t>
         </is>
       </c>
       <c r="B189" t="n">
         <v>1</v>
       </c>
       <c r="C189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-1022100736476360704</t>
+          <t>t-1037749001658032128</t>
         </is>
       </c>
       <c r="B190" t="n">
         <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-707739170878439424</t>
+          <t>t-985241133159796736</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -2923,24 +2923,24 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-875514382276538369</t>
+          <t>t-657266493659435008</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-899745107900940288</t>
+          <t>t-911670405483651072</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C193" t="n">
         <v>1</v>
@@ -2949,20 +2949,20 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-899747204986019844</t>
+          <t>t-601913063172771840</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-782856010625003521</t>
+          <t>t-602589391198900226</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -2975,72 +2975,72 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-1034302397882015745</t>
+          <t>t-682987194840150016</t>
         </is>
       </c>
       <c r="B196" t="n">
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-1034317413309919232</t>
+          <t>t-708426270242164736</t>
         </is>
       </c>
       <c r="B197" t="n">
         <v>1</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-1034572709651533825</t>
+          <t>t-721832870604640260</t>
         </is>
       </c>
       <c r="B198" t="n">
         <v>1</v>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-1034867901902319618</t>
+          <t>t-721856912548044800</t>
         </is>
       </c>
       <c r="B199" t="n">
         <v>1</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-1034875857125425152</t>
+          <t>t-722873292755828736</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-1034886406957662208</t>
+          <t>t-746718356405882880</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -3053,24 +3053,24 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-1034922534326738944</t>
+          <t>t-764530848079155200</t>
         </is>
       </c>
       <c r="B202" t="n">
         <v>1</v>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-1035345459290746880</t>
+          <t>t-764927216257949696</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -3079,11 +3079,11 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-1035480584934514690</t>
+          <t>t-780146894357929984</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C204" t="n">
         <v>1</v>
@@ -3092,7 +3092,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-1035555438882897926</t>
+          <t>t-784456849215123457</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -3105,33 +3105,33 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-1036020306895413248</t>
+          <t>t-785997107094093825</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-1036935289485316096</t>
+          <t>t-859901667361345536</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-1037072521940623360</t>
+          <t>t-907946100618907648</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -3144,11 +3144,11 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-1037363401314455553</t>
+          <t>t-978842874749046784</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -3157,33 +3157,33 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-1037404586812821505</t>
+          <t>t-979067875213234176</t>
         </is>
       </c>
       <c r="B210" t="n">
         <v>1</v>
       </c>
       <c r="C210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-1037450313920393218</t>
+          <t>t-1014570924681687042</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-1037475943969898497</t>
+          <t>t-1028684190169149440</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -3196,20 +3196,20 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-1037727143038517248</t>
+          <t>t-1028764502517592065</t>
         </is>
       </c>
       <c r="B213" t="n">
         <v>1</v>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-1037749001658032128</t>
+          <t>t-1036976718718881793</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -3222,37 +3222,37 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-1044637096198041600</t>
+          <t>t-636611275666128896</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-1025638750783778816</t>
+          <t>t-748353178270199808</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-1021604631217164289</t>
+          <t>t-760920272639852545</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C217" t="n">
         <v>1</v>
@@ -3261,7 +3261,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-1021652512343031808</t>
+          <t>t-760967260039106560</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -3274,7 +3274,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-1021683870188503041</t>
+          <t>t-760972532421984261</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -3287,7 +3287,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-1021786238024527873</t>
+          <t>t-760978989359833088</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -3300,33 +3300,33 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-635524506925314049</t>
+          <t>t-761017815637696513</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-652481072199036928</t>
+          <t>t-761048712214818816</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-662196453281038336</t>
+          <t>t-761049587066867712</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -3339,7 +3339,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-708426270242164736</t>
+          <t>t-761050328493985794</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -3352,20 +3352,20 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-784456849215123457</t>
+          <t>t-761057847262142465</t>
         </is>
       </c>
       <c r="B225" t="n">
         <v>1</v>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-820042974197334018</t>
+          <t>t-897457481550618624</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -3378,7 +3378,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-905607663798636547</t>
+          <t>t-1008536493269237760</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -3391,7 +3391,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-906292765633515520</t>
+          <t>t-1035948096843395073</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -3404,20 +3404,20 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-906696780133388288</t>
+          <t>t-655463817921626112</t>
         </is>
       </c>
       <c r="B229" t="n">
         <v>1</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-907946100618907648</t>
+          <t>t-1050781684117987329</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -3430,20 +3430,20 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-952979792495816704</t>
+          <t>t-538650662780022784</t>
         </is>
       </c>
       <c r="B231" t="n">
         <v>0</v>
       </c>
       <c r="C231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-1009549219240308737</t>
+          <t>t-651743798721122304</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -3456,33 +3456,33 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-1035669454246563841</t>
+          <t>t-705116084911763456</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-1039643454140231684</t>
+          <t>t-767994872578056192</t>
         </is>
       </c>
       <c r="B234" t="n">
         <v>0</v>
       </c>
       <c r="C234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-1039968877537456128</t>
+          <t>t-783921439044841474</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -3495,7 +3495,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-561309176475824128</t>
+          <t>t-784017385615265792</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -3508,50 +3508,50 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-593171698846830592</t>
+          <t>t-784336997477261312</t>
         </is>
       </c>
       <c r="B237" t="n">
         <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-626642400555892737</t>
+          <t>t-784835805999198208</t>
         </is>
       </c>
       <c r="B238" t="n">
         <v>1</v>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-626741309693394948</t>
+          <t>t-832931106873819136</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-626870204199534598</t>
+          <t>t-903533073358352385</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -3560,24 +3560,24 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-628272138890252288</t>
+          <t>t-903589529143189504</t>
         </is>
       </c>
       <c r="B241" t="n">
         <v>0</v>
       </c>
       <c r="C241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-634745305263640576</t>
+          <t>t-936972059766415360</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C242" t="n">
         <v>1</v>
@@ -3586,11 +3586,11 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-646027426347155456</t>
+          <t>t-953220290657492992</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -3599,50 +3599,50 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-897457481550618624</t>
+          <t>t-984477965856772096</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-1042832069506871296</t>
+          <t>t-984491425478971393</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-619624637685755904</t>
+          <t>t-984517270725644288</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-761355220198756352</t>
+          <t>t-985567499843489798</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C247" t="n">
         <v>1</v>
@@ -3651,7 +3651,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-761372714925891586</t>
+          <t>t-1041944531015483392</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -3664,24 +3664,24 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-958376851084337153</t>
+          <t>t-1042049144620285953</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-1042440160749780992</t>
+          <t>t-685265326112559104</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C250" t="n">
         <v>1</v>
@@ -3690,7 +3690,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-569509595133173761</t>
+          <t>t-903255663417204736</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -3703,11 +3703,11 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-638674545726066688</t>
+          <t>t-659041979200880644</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C252" t="n">
         <v>1</v>
@@ -3716,24 +3716,24 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-638724428944150528</t>
+          <t>t-893162180492787716</t>
         </is>
       </c>
       <c r="B253" t="n">
         <v>1</v>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-639699321500364800</t>
+          <t>t-698062078922375169</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C254" t="n">
         <v>1</v>
@@ -3742,20 +3742,20 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-639804238848237568</t>
+          <t>t-727758683510329344</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-653152901892739072</t>
+          <t>t-727889856274247680</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -3768,7 +3768,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-653993411570192384</t>
+          <t>t-769170271928483840</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -3781,50 +3781,50 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-660890514741399552</t>
+          <t>t-801380815166930945</t>
         </is>
       </c>
       <c r="B258" t="n">
         <v>0</v>
       </c>
       <c r="C258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-661115206525915136</t>
+          <t>t-901071860456185856</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-661147212135727104</t>
+          <t>t-951353773321945088</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-661201099085377537</t>
+          <t>t-951370648210767877</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -3833,33 +3833,33 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-681483416165048320</t>
+          <t>t-1060159476664356864</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-705116084911763456</t>
+          <t>t-811342708061024256</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-726061174727532544</t>
+          <t>t-636560790015877120</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -3872,59 +3872,59 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-845940693256286208</t>
+          <t>t-636561226298970112</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-984477965856772096</t>
+          <t>t-636561581355204609</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-984491425478971393</t>
+          <t>t-636600809573220352</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-984517270725644288</t>
+          <t>t-636742652692688896</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-985567499843489798</t>
+          <t>t-791567733695606784</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -3937,20 +3937,20 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-1052331593933688832</t>
+          <t>t-573292412430376960</t>
         </is>
       </c>
       <c r="B270" t="n">
         <v>0</v>
       </c>
       <c r="C270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-1052814538419003392</t>
+          <t>t-817491496857255936</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -3963,24 +3963,24 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-1052930779947393024</t>
+          <t>t-578003881596215296</t>
         </is>
       </c>
       <c r="B272" t="n">
         <v>1</v>
       </c>
       <c r="C272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-1052972300667146241</t>
+          <t>t-648439576441171968</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C273" t="n">
         <v>1</v>
@@ -3989,7 +3989,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-1053005694822207488</t>
+          <t>t-649621017187512320</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -4002,24 +4002,24 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-1053014697077817346</t>
+          <t>t-659011315088781312</t>
         </is>
       </c>
       <c r="B275" t="n">
         <v>1</v>
       </c>
       <c r="C275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-1053091674438725632</t>
+          <t>t-659473740955189248</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C276" t="n">
         <v>1</v>
@@ -4028,20 +4028,20 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-1053211878921568256</t>
+          <t>t-892449776129777665</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-1053220103070932992</t>
+          <t>t-892462041277091840</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -4054,63 +4054,63 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-1053451825607774209</t>
+          <t>t-892471980875808773</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-1053915265375834112</t>
+          <t>t-892472490483646466</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-1014627656082579457</t>
+          <t>t-892606487482089472</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-646786233809539072</t>
+          <t>t-892633367342088192</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-696805827110428676</t>
+          <t>t-892700840817045504</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C283" t="n">
         <v>1</v>
@@ -4119,24 +4119,24 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-726931802141659137</t>
+          <t>t-892731725897281538</t>
         </is>
       </c>
       <c r="B284" t="n">
         <v>0</v>
       </c>
       <c r="C284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-663721804310122496</t>
+          <t>t-729341140499976193</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C285" t="n">
         <v>1</v>
@@ -4145,33 +4145,33 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-666910428551897088</t>
+          <t>t-729421969410564096</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-669588910935285760</t>
+          <t>t-729436964269658112</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-669601333348073473</t>
+          <t>t-729446762138591232</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -4184,50 +4184,50 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-670921727346614272</t>
+          <t>t-729454167735959552</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-769170271928483840</t>
+          <t>t-729749802209054720</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-801380815166930945</t>
+          <t>t-686862688752807937</t>
         </is>
       </c>
       <c r="B291" t="n">
         <v>0</v>
       </c>
       <c r="C291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-821117207245713408</t>
+          <t>t-763085869045653505</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C292" t="n">
         <v>1</v>
@@ -4236,20 +4236,20 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-983975898042064896</t>
+          <t>t-763088808799797248</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-984343410269151233</t>
+          <t>t-887004122628710405</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -4262,11 +4262,11 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-1060159476664356864</t>
+          <t>t-887017424306008065</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C295" t="n">
         <v>1</v>
@@ -4275,7 +4275,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-560425264807944193</t>
+          <t>t-893133071528202241</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -4288,7 +4288,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-563347902408695811</t>
+          <t>t-1052977443760427009</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -4301,7 +4301,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-578199507671904256</t>
+          <t>t-874804635327905792</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -4314,7 +4314,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-578943021716250624</t>
+          <t>t-579030352271917056</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -4327,59 +4327,59 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-573120640175112192</t>
+          <t>t-579089809991331841</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-862378347007025154</t>
+          <t>t-601384798897115138</t>
         </is>
       </c>
       <c r="B301" t="n">
         <v>1</v>
       </c>
       <c r="C301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-930445521671589888</t>
+          <t>t-724222646435508224</t>
         </is>
       </c>
       <c r="B302" t="n">
         <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-968874912806068224</t>
+          <t>t-766980130283610112</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-567287806645395457</t>
+          <t>t-786005533685710849</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -4392,33 +4392,33 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-571711350180868097</t>
+          <t>t-860258475883937792</t>
         </is>
       </c>
       <c r="B305" t="n">
         <v>0</v>
       </c>
       <c r="C305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-576618970368876544</t>
+          <t>t-872233585960337408</t>
         </is>
       </c>
       <c r="B306" t="n">
         <v>0</v>
       </c>
       <c r="C306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-637980934705422337</t>
+          <t>t-1038395251214495744</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -4431,7 +4431,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-659011315088781312</t>
+          <t>t-1038467054960095234</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -4444,11 +4444,11 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-659473740955189248</t>
+          <t>t-1038555106885681153</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -4457,50 +4457,50 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-787849177581649920</t>
+          <t>t-1047259835777990656</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-850359691771293697</t>
+          <t>t-639100384343101440</t>
         </is>
       </c>
       <c r="B311" t="n">
         <v>1</v>
       </c>
       <c r="C311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-900702851202207746</t>
+          <t>t-634366408906768384</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-906773843066441728</t>
+          <t>t-735633517237919744</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C313" t="n">
         <v>1</v>
@@ -4509,24 +4509,24 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-906922961621454848</t>
+          <t>t-639559017052803076</t>
         </is>
       </c>
       <c r="B314" t="n">
         <v>1</v>
       </c>
       <c r="C314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-906981528483364865</t>
+          <t>t-1050079983765311488</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C315" t="n">
         <v>1</v>
@@ -4535,33 +4535,33 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-906982446905876480</t>
+          <t>t-648598850530226176</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-925720058432811008</t>
+          <t>t-756001538783326208</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-1012441483654332417</t>
+          <t>t-756128433025843200</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -4574,7 +4574,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-572808490965733378</t>
+          <t>t-756153001300156416</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -4587,63 +4587,63 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-831479807821103104</t>
+          <t>t-756172674531942400</t>
         </is>
       </c>
       <c r="B320" t="n">
         <v>1</v>
       </c>
       <c r="C320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-831825002534154241</t>
+          <t>t-983744396364480512</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-1027967787312939008</t>
+          <t>t-667433104118833152</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-579030352271917056</t>
+          <t>t-678946767459618818</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-579089809991331841</t>
+          <t>t-679082878148341760</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C324" t="n">
         <v>1</v>
@@ -4652,7 +4652,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-837738761547091968</t>
+          <t>t-736702899519004674</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -4665,59 +4665,59 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-609930400341725185</t>
+          <t>t-922944953696899072</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-609937116462604289</t>
+          <t>t-922950403255341056</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-910191038052077569</t>
+          <t>t-922959565792083968</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-975332165528576000</t>
+          <t>t-863149830931185664</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-1049670308142206978</t>
+          <t>t-692348550416633857</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -4730,11 +4730,11 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-607899372177747968</t>
+          <t>t-848401927432019970</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C331" t="n">
         <v>1</v>
@@ -4743,11 +4743,11 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-644964294954741760</t>
+          <t>t-931989476401926144</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C332" t="n">
         <v>1</v>
@@ -4756,20 +4756,20 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-914224756555055104</t>
+          <t>t-725450676986335232</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-631280418583658496</t>
+          <t>t-913012097595867137</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -4782,37 +4782,37 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-634366408906768384</t>
+          <t>t-749466819581411328</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-646070620120215552</t>
+          <t>t-1016527492478328832</t>
         </is>
       </c>
       <c r="B336" t="n">
         <v>1</v>
       </c>
       <c r="C336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-646419866795118592</t>
+          <t>t-1044155993779851264</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C337" t="n">
         <v>1</v>
@@ -4821,37 +4821,37 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-676228752599314434</t>
+          <t>t-751197637794230272</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-676234421217845248</t>
+          <t>t-1021764160093401089</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-676358315065016322</t>
+          <t>t-1022188431483387905</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C340" t="n">
         <v>1</v>
@@ -4860,11 +4860,11 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-671722697408290816</t>
+          <t>t-1022188766964998144</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -4873,20 +4873,20 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-981921278876684288</t>
+          <t>t-1022577266117824514</t>
         </is>
       </c>
       <c r="B342" t="n">
         <v>1</v>
       </c>
       <c r="C342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-655890642334257152</t>
+          <t>t-1023560708376748032</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -4899,33 +4899,33 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-678946767459618818</t>
+          <t>t-1023767948165562368</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-679082878148341760</t>
+          <t>t-1023931290045829121</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-661127792231321600</t>
+          <t>t-1024052229152669696</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -4938,20 +4938,20 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-803234433000148994</t>
+          <t>t-1029396532313968640</t>
         </is>
       </c>
       <c r="B347" t="n">
         <v>1</v>
       </c>
       <c r="C347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-803236909183107073</t>
+          <t>t-1029397392343425024</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -4964,7 +4964,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-803260822801649664</t>
+          <t>t-1029408763877498885</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -4977,37 +4977,37 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-803260889940062209</t>
+          <t>t-1029408838305361921</t>
         </is>
       </c>
       <c r="B350" t="n">
         <v>1</v>
       </c>
       <c r="C350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-803271446357282816</t>
+          <t>t-1029566349918527488</t>
         </is>
       </c>
       <c r="B351" t="n">
         <v>1</v>
       </c>
       <c r="C351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-736702899519004674</t>
+          <t>t-756636337130774528</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -5016,37 +5016,37 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-794366500865982467</t>
+          <t>t-971386931857772544</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-1054497487657021440</t>
+          <t>t-772460103026868224</t>
         </is>
       </c>
       <c r="B354" t="n">
         <v>1</v>
       </c>
       <c r="C354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-853267425386803200</t>
+          <t>t-913112779548176384</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C355" t="n">
         <v>1</v>
@@ -5055,11 +5055,11 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-1016527492478328832</t>
+          <t>t-781155273763192832</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -5068,7 +5068,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-751165986527674368</t>
+          <t>t-804685877838565376</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -5081,11 +5081,11 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-751167208219406336</t>
+          <t>t-812266777711431682</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C358" t="n">
         <v>0</v>
@@ -5094,11 +5094,11 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-761251305100902400</t>
+          <t>t-848851618011525120</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C359" t="n">
         <v>0</v>
@@ -5107,7 +5107,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-1009997647032344576</t>
+          <t>t-1049947970664304640</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -5120,72 +5120,72 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-753754552936136704</t>
+          <t>t-857651953928744960</t>
         </is>
       </c>
       <c r="B361" t="n">
         <v>0</v>
       </c>
       <c r="C361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-880159202567753728</t>
+          <t>t-885945201105219584</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-756636337130774528</t>
+          <t>t-885947457330438145</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-764984507686490112</t>
+          <t>t-834760589746569216</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-904025443510214656</t>
+          <t>t-841401006797815808</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-904025763938217984</t>
+          <t>t-863757133304795136</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -5198,7 +5198,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-904026823356506112</t>
+          <t>t-854163806288834560</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -5211,33 +5211,33 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-915593286122950656</t>
+          <t>t-1047617270736936962</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-915603421222309888</t>
+          <t>t-860847907427233792</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-915603564743073792</t>
+          <t>t-860879398387556352</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -5250,20 +5250,20 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-779013669589884928</t>
+          <t>t-884885746984681473</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-1032899444918898688</t>
+          <t>t-884938114657128448</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -5276,33 +5276,33 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-1042371802121596928</t>
+          <t>t-901254745888878592</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-925465361557975040</t>
+          <t>t-902559120888184833</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-785262083638169600</t>
+          <t>t-903611928827674624</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -5315,20 +5315,20 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-804685877838565376</t>
+          <t>t-951198867181236228</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-996488939933401088</t>
+          <t>t-877327075954245633</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -5341,11 +5341,11 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-803919035318628352</t>
+          <t>t-880054371417018369</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C378" t="n">
         <v>1</v>
@@ -5354,24 +5354,24 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-804312701002457088</t>
+          <t>t-881979226697740288</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-817388602090987520</t>
+          <t>t-905261367573090305</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C380" t="n">
         <v>0</v>
@@ -5380,20 +5380,20 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-823317212446556161</t>
+          <t>t-907371676148670465</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-939854628749004801</t>
+          <t>t-912214251749744641</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -5406,50 +5406,50 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-861539001962041345</t>
+          <t>t-913513656511614977</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-1047617270736936962</t>
+          <t>t-955145334002417666</t>
         </is>
       </c>
       <c r="B384" t="n">
         <v>0</v>
       </c>
       <c r="C384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-902559120888184833</t>
+          <t>t-588767869539733506</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-903611928827674624</t>
+          <t>t-850388688303529986</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C386" t="n">
         <v>1</v>
@@ -5458,7 +5458,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-1034597062573211651</t>
+          <t>t-850540226590253057</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -5471,20 +5471,20 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-1052284815779622917</t>
+          <t>t-952288702339997696</t>
         </is>
       </c>
       <c r="B388" t="n">
         <v>1</v>
       </c>
       <c r="C388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-1052565742183272454</t>
+          <t>t-952549733930885120</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -5497,33 +5497,33 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-1052712831517450241</t>
+          <t>t-952956945098473472</t>
         </is>
       </c>
       <c r="B390" t="n">
         <v>1</v>
       </c>
       <c r="C390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-907371676148670465</t>
+          <t>t-954911597251657728</t>
         </is>
       </c>
       <c r="B391" t="n">
         <v>0</v>
       </c>
       <c r="C391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-912214251749744641</t>
+          <t>t-1016375311733284864</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -5536,33 +5536,33 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-913513656511614977</t>
+          <t>t-1019582623679696898</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-961482044650930177</t>
+          <t>t-517603456123944960</t>
         </is>
       </c>
       <c r="B394" t="n">
         <v>1</v>
       </c>
       <c r="C394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-1045400324041846785</t>
+          <t>t-517609652138569728</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -5575,89 +5575,89 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-630691491766251520</t>
+          <t>t-518412519053221888</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-954911597251657728</t>
+          <t>t-519245102263574528</t>
         </is>
       </c>
       <c r="B397" t="n">
         <v>0</v>
       </c>
       <c r="C397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-991032269405073408</t>
+          <t>t-519387709392314368</t>
         </is>
       </c>
       <c r="B398" t="n">
         <v>1</v>
       </c>
       <c r="C398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-991077450368061440</t>
+          <t>t-519393743326441472</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-519370037812277248</t>
+          <t>t-519395800687083520</t>
         </is>
       </c>
       <c r="B400" t="n">
         <v>0</v>
       </c>
       <c r="C400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-1048603963069779968</t>
+          <t>t-519401695307390976</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-650288114116730880</t>
+          <t>t-635439309563260929</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C402" t="n">
         <v>1</v>
@@ -5666,11 +5666,11 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-652079150321270784</t>
+          <t>t-635461097114484736</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C403" t="n">
         <v>1</v>
@@ -5679,37 +5679,37 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-652171720393101312</t>
+          <t>t-635467880918818816</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-776037646023925760</t>
+          <t>t-635469518022803456</t>
         </is>
       </c>
       <c r="B405" t="n">
         <v>1</v>
       </c>
       <c r="C405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-737657149174730753</t>
+          <t>t-635491308438728704</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C406" t="n">
         <v>1</v>
@@ -5718,20 +5718,20 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-737657922885423104</t>
+          <t>t-635718998781390848</t>
         </is>
       </c>
       <c r="B407" t="n">
         <v>1</v>
       </c>
       <c r="C407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-738291666285694976</t>
+          <t>t-636228687013265410</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -5744,20 +5744,20 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-750337554457694208</t>
+          <t>t-650288114116730880</t>
         </is>
       </c>
       <c r="B409" t="n">
         <v>0</v>
       </c>
       <c r="C409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-869830075268685825</t>
+          <t>t-953177789628407808</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -5770,7 +5770,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-529737265317421056</t>
+          <t>t-953520796361744384</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -5783,20 +5783,20 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-586533262912315392</t>
+          <t>t-1006187748338864128</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-884450764084662272</t>
+          <t>t-1006198330727247872</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -5809,7 +5809,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-884455668140445696</t>
+          <t>t-1006207380676280320</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -5822,7 +5822,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-884457897043927040</t>
+          <t>t-1006582449827209216</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -5835,7 +5835,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-884462539458977792</t>
+          <t>t-519900708980948992</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -5848,24 +5848,24 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-984048304144166912</t>
+          <t>t-635444360306368512</t>
         </is>
       </c>
       <c r="B417" t="n">
         <v>1</v>
       </c>
       <c r="C417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-984354039067529216</t>
+          <t>t-674956056209063937</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C418" t="n">
         <v>0</v>
@@ -5874,11 +5874,11 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-538736663154135040</t>
+          <t>t-801681235982557184</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C419" t="n">
         <v>0</v>
@@ -5887,7 +5887,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-1051891605035241474</t>
+          <t>t-1057306605287550976</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -5900,7 +5900,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-577791187240787968</t>
+          <t>t-1057548272053698560</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -5913,20 +5913,20 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-578574154607280128</t>
+          <t>t-522926675542421504</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-595190714205634560</t>
+          <t>t-642554131211755524</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -5939,7 +5939,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-677902230650003457</t>
+          <t>t-782797451639914497</t>
         </is>
       </c>
       <c r="B424" t="n">
@@ -5952,20 +5952,20 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-691624168824115200</t>
+          <t>t-800968114653401088</t>
         </is>
       </c>
       <c r="B425" t="n">
         <v>0</v>
       </c>
       <c r="C425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-691706624386404353</t>
+          <t>t-627009098568073216</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -5978,7 +5978,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-702966418057330688</t>
+          <t>t-875802481292439553</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -5991,7 +5991,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-703646494901927936</t>
+          <t>t-955738647663431681</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -6004,7 +6004,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-744549085244334080</t>
+          <t>t-955740876436844544</t>
         </is>
       </c>
       <c r="B429" t="n">
@@ -6017,85 +6017,85 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-744630770116005888</t>
+          <t>t-956201264915910656</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-745023417267724289</t>
+          <t>t-957544710825967616</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-745961763473080321</t>
+          <t>t-534007858804056066</t>
         </is>
       </c>
       <c r="B432" t="n">
         <v>1</v>
       </c>
       <c r="C432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-746461142604668928</t>
+          <t>t-538736663154135040</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-762281733672820736</t>
+          <t>t-576412478135005185</t>
         </is>
       </c>
       <c r="B434" t="n">
         <v>0</v>
       </c>
       <c r="C434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-769394896344064001</t>
+          <t>t-603463396365836289</t>
         </is>
       </c>
       <c r="B435" t="n">
         <v>0</v>
       </c>
       <c r="C435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-787588682731626496</t>
+          <t>t-629222720161640449</t>
         </is>
       </c>
       <c r="B436" t="n">
@@ -6108,7 +6108,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-806453539409162240</t>
+          <t>t-634983488203177984</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -6121,7 +6121,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-806476961451216896</t>
+          <t>t-783909177920020480</t>
         </is>
       </c>
       <c r="B438" t="n">
@@ -6134,7 +6134,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-836980367781396480</t>
+          <t>t-784305124269182976</t>
         </is>
       </c>
       <c r="B439" t="n">
@@ -6147,11 +6147,11 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-884135398854635520</t>
+          <t>t-834770863664795650</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C440" t="n">
         <v>1</v>
@@ -6160,59 +6160,59 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-884163532958441472</t>
+          <t>t-965524750264135680</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-884173621224239104</t>
+          <t>t-966320851678318593</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-884176826679136256</t>
+          <t>t-967380419707535360</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-884179431887167489</t>
+          <t>t-1048194085624995840</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-884282035384320001</t>
+          <t>t-1052528388341149696</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -6225,20 +6225,20 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-884290062598451200</t>
+          <t>t-1060529365962948608</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-884310032518664194</t>
+          <t>t-542716499115642881</t>
         </is>
       </c>
       <c r="B447" t="n">
@@ -6251,24 +6251,24 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-884325033430200320</t>
+          <t>t-712209810511564800</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-948989121611075584</t>
+          <t>t-750337802257129474</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C449" t="n">
         <v>0</v>
@@ -6277,33 +6277,33 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-974595772317659137</t>
+          <t>t-846728089912643588</t>
         </is>
       </c>
       <c r="B450" t="n">
         <v>0</v>
       </c>
       <c r="C450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-976509689000325120</t>
+          <t>t-552766016325840896</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-1008363588552151040</t>
+          <t>t-623733200322449409</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -6316,72 +6316,72 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-1052528388341149696</t>
+          <t>t-831105804946247681</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-649269312625209344</t>
+          <t>t-832880826807418880</t>
         </is>
       </c>
       <c r="B454" t="n">
         <v>0</v>
       </c>
       <c r="C454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-549859905231142914</t>
+          <t>t-958216984176427008</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-712209810511564800</t>
+          <t>t-801715561692626944</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-1014607937048850434</t>
+          <t>t-801720307002339328</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-652334979544948736</t>
+          <t>t-1050114319227195392</t>
         </is>
       </c>
       <c r="B458" t="n">
@@ -6394,24 +6394,24 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-684255556144619520</t>
+          <t>t-707530442468098049</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-699529516008476673</t>
+          <t>t-707587020831518720</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C460" t="n">
         <v>0</v>
@@ -6420,46 +6420,46 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-818362228881719296</t>
+          <t>t-969482754407661568</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-818369931054030848</t>
+          <t>t-979424136656125952</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-818390305326137344</t>
+          <t>t-999158779580121089</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-818474161949601796</t>
+          <t>t-570990543225950209</t>
         </is>
       </c>
       <c r="B464" t="n">
@@ -6472,7 +6472,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-818513625468010496</t>
+          <t>t-633755138834874368</t>
         </is>
       </c>
       <c r="B465" t="n">
@@ -6485,7 +6485,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-818701658280628224</t>
+          <t>t-577532478912663552</t>
         </is>
       </c>
       <c r="B466" t="n">
@@ -6498,24 +6498,24 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-818709014498443264</t>
+          <t>t-970012076428193796</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-819113813505146880</t>
+          <t>t-1006487935733174274</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C468" t="n">
         <v>1</v>
@@ -6524,59 +6524,59 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-888058781363580930</t>
+          <t>t-580822339648122880</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-962370594363838464</t>
+          <t>t-581167008596758528</t>
         </is>
       </c>
       <c r="B470" t="n">
         <v>0</v>
       </c>
       <c r="C470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-979424136656125952</t>
+          <t>t-764514429736132609</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C471" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-570985250324656128</t>
+          <t>t-764618483195838464</t>
         </is>
       </c>
       <c r="B472" t="n">
         <v>1</v>
       </c>
       <c r="C472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-571078007407775744</t>
+          <t>t-850396935152422913</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -6589,20 +6589,20 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-571808211742814209</t>
+          <t>t-1003856366128259073</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-999158779580121089</t>
+          <t>t-581115572282376192</t>
         </is>
       </c>
       <c r="B475" t="n">
@@ -6615,24 +6615,24 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-731437259828924417</t>
+          <t>t-712917955391172609</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-865160167155003392</t>
+          <t>t-737201412497649664</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C477" t="n">
         <v>0</v>
@@ -6641,20 +6641,20 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-1006487935733174274</t>
+          <t>t-737877218718797825</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-660085012306395136</t>
+          <t>t-738015379373625344</t>
         </is>
       </c>
       <c r="B479" t="n">
@@ -6667,11 +6667,11 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-583674889480962049</t>
+          <t>t-738097397058932736</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C480" t="n">
         <v>1</v>
@@ -6680,50 +6680,50 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-940281474259062789</t>
+          <t>t-738253541266075652</t>
         </is>
       </c>
       <c r="B481" t="n">
         <v>1</v>
       </c>
       <c r="C481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-590431507967299584</t>
+          <t>t-738419452778274816</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-743692015158726656</t>
+          <t>t-738714074352123904</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-743726128003588096</t>
+          <t>t-817303376253882368</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C484" t="n">
         <v>1</v>
@@ -6732,33 +6732,33 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-690751741676142592</t>
+          <t>t-743692015158726656</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-942758921533624320</t>
+          <t>t-743726128003588096</t>
         </is>
       </c>
       <c r="B486" t="n">
         <v>1</v>
       </c>
       <c r="C486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-877183876254269441</t>
+          <t>t-740222976763830272</t>
         </is>
       </c>
       <c r="B487" t="n">
@@ -6771,7 +6771,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-877213422538158080</t>
+          <t>t-740225059193819140</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -6784,20 +6784,20 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-800696529770151938</t>
+          <t>t-740231562940297216</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-955871714914766849</t>
+          <t>t-740233568627068929</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -6810,7 +6810,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-605693478799065088</t>
+          <t>t-740511241383387136</t>
         </is>
       </c>
       <c r="B491" t="n">
@@ -6823,20 +6823,20 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-605727874348384256</t>
+          <t>t-746801790117646336</t>
         </is>
       </c>
       <c r="B492" t="n">
         <v>1</v>
       </c>
       <c r="C492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-605802486604046337</t>
+          <t>t-746821154074206210</t>
         </is>
       </c>
       <c r="B493" t="n">
@@ -6849,7 +6849,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-605842449722777601</t>
+          <t>t-895521975434530816</t>
         </is>
       </c>
       <c r="B494" t="n">
@@ -6862,37 +6862,37 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-605899935117017088</t>
+          <t>t-895525136580923394</t>
         </is>
       </c>
       <c r="B495" t="n">
         <v>1</v>
       </c>
       <c r="C495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-776349771640496128</t>
+          <t>t-942758921533624320</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-608642817427156992</t>
+          <t>t-593397061376147456</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C497" t="n">
         <v>1</v>
@@ -6901,11 +6901,11 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-940349476509814789</t>
+          <t>t-801458708786151425</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C498" t="n">
         <v>1</v>
@@ -6914,20 +6914,20 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-880840050245849088</t>
+          <t>t-624613462476337152</t>
         </is>
       </c>
       <c r="B499" t="n">
         <v>1</v>
       </c>
       <c r="C499" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-994824289349242881</t>
+          <t>t-624628271745998852</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -6940,20 +6940,20 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-994897053523341314</t>
+          <t>t-948800001890713600</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-995019257841889281</t>
+          <t>t-1024752032350195712</t>
         </is>
       </c>
       <c r="B502" t="n">
@@ -6966,11 +6966,11 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-995256568429064192</t>
+          <t>t-594811114661228544</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C503" t="n">
         <v>1</v>
@@ -6979,37 +6979,37 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-1021061872274018305</t>
+          <t>t-595126127343116288</t>
         </is>
       </c>
       <c r="B504" t="n">
         <v>0</v>
       </c>
       <c r="C504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-618340855657721856</t>
+          <t>t-800696529770151938</t>
         </is>
       </c>
       <c r="B505" t="n">
         <v>0</v>
       </c>
       <c r="C505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-769927127475097602</t>
+          <t>t-968152808062160896</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C506" t="n">
         <v>1</v>
@@ -7018,7 +7018,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-1032956238051659778</t>
+          <t>t-940349476509814789</t>
         </is>
       </c>
       <c r="B507" t="n">
@@ -7031,20 +7031,20 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-1038016191711928321</t>
+          <t>t-608689054549471232</t>
         </is>
       </c>
       <c r="B508" t="n">
         <v>1</v>
       </c>
       <c r="C508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-1038359113791680512</t>
+          <t>t-608880570362437632</t>
         </is>
       </c>
       <c r="B509" t="n">
@@ -7057,50 +7057,50 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-652058053697765376</t>
+          <t>t-1008938317684060160</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-653076415596888064</t>
+          <t>t-1008975928465248256</t>
         </is>
       </c>
       <c r="B511" t="n">
         <v>1</v>
       </c>
       <c r="C511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-801672831046221825</t>
+          <t>t-1008978373484400640</t>
         </is>
       </c>
       <c r="B512" t="n">
         <v>0</v>
       </c>
       <c r="C512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-801706221803806720</t>
+          <t>t-1008995195113918464</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C513" t="n">
         <v>1</v>
@@ -7109,37 +7109,37 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-908615579501780992</t>
+          <t>t-1009346793090506752</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-660041764225589248</t>
+          <t>t-1009539540728639490</t>
         </is>
       </c>
       <c r="B515" t="n">
         <v>1</v>
       </c>
       <c r="C515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-859792354395533312</t>
+          <t>t-1010058406223400966</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C516" t="n">
         <v>0</v>
@@ -7148,11 +7148,11 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-860626885302202369</t>
+          <t>t-1011026406564823042</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C517" t="n">
         <v>1</v>
@@ -7161,7 +7161,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-861365904025714688</t>
+          <t>t-997420355043102720</t>
         </is>
       </c>
       <c r="B518" t="n">
@@ -7174,7 +7174,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-861657024731467783</t>
+          <t>t-633506882188021761</t>
         </is>
       </c>
       <c r="B519" t="n">
@@ -7187,11 +7187,11 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-861897864632578048</t>
+          <t>t-849766480828878849</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C520" t="n">
         <v>1</v>
@@ -7200,50 +7200,50 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-862094425949917185</t>
+          <t>t-900842879182131201</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-862663540179701760</t>
+          <t>t-1008697922366689285</t>
         </is>
       </c>
       <c r="B522" t="n">
         <v>0</v>
       </c>
       <c r="C522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-784413747376893952</t>
+          <t>t-1032956238051659778</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-695507166833184769</t>
+          <t>t-639695836943884288</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C524" t="n">
         <v>1</v>
@@ -7252,7 +7252,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-698444957653278721</t>
+          <t>t-650407824212660224</t>
         </is>
       </c>
       <c r="B525" t="n">
@@ -7265,7 +7265,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-708088836748910592</t>
+          <t>t-650415832523255809</t>
         </is>
       </c>
       <c r="B526" t="n">
@@ -7278,33 +7278,33 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-728492484175745024</t>
+          <t>t-650581180757073921</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-737558350011867138</t>
+          <t>t-650584856162926592</t>
         </is>
       </c>
       <c r="B528" t="n">
         <v>1</v>
       </c>
       <c r="C528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-738417908926320643</t>
+          <t>t-650605489492000769</t>
         </is>
       </c>
       <c r="B529" t="n">
@@ -7317,33 +7317,33 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-738664460173381632</t>
+          <t>t-652058053697765376</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-963803678573547520</t>
+          <t>t-653076415596888064</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-737663862317682689</t>
+          <t>t-953295637679951872</t>
         </is>
       </c>
       <c r="B532" t="n">
@@ -7356,11 +7356,11 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-737736248970911744</t>
+          <t>t-953311292475011072</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C533" t="n">
         <v>1</v>
@@ -7369,24 +7369,24 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-737669645872795648</t>
+          <t>t-652148120952803329</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-1006391548668514309</t>
+          <t>t-723039191961985026</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C535" t="n">
         <v>1</v>
@@ -7395,7 +7395,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-1006459221448318981</t>
+          <t>t-859792354395533312</t>
         </is>
       </c>
       <c r="B536" t="n">
@@ -7408,33 +7408,33 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-745170424456052736</t>
+          <t>t-860626885302202369</t>
         </is>
       </c>
       <c r="B537" t="n">
         <v>1</v>
       </c>
       <c r="C537" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-860462128263811072</t>
+          <t>t-861365904025714688</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C538" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-741525012784553985</t>
+          <t>t-861657024731467783</t>
         </is>
       </c>
       <c r="B539" t="n">
@@ -7447,11 +7447,11 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-743384229497679872</t>
+          <t>t-861897864632578048</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C540" t="n">
         <v>1</v>
@@ -7460,20 +7460,20 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-743816866171326464</t>
+          <t>t-862094425949917185</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-824202245172592640</t>
+          <t>t-862663540179701760</t>
         </is>
       </c>
       <c r="B542" t="n">
@@ -7486,7 +7486,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-760154379307458560</t>
+          <t>t-666556746308198401</t>
         </is>
       </c>
       <c r="B543" t="n">
@@ -7499,37 +7499,37 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-760176866099601408</t>
+          <t>t-701060752074010624</t>
         </is>
       </c>
       <c r="B544" t="n">
         <v>1</v>
       </c>
       <c r="C544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-765679686244454400</t>
+          <t>t-948994988666425345</t>
         </is>
       </c>
       <c r="B545" t="n">
         <v>1</v>
       </c>
       <c r="C545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-795263551388663808</t>
+          <t>t-949010413437497347</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C546" t="n">
         <v>1</v>
@@ -7538,11 +7538,11 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-806105457077186561</t>
+          <t>t-949151246799142913</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C547" t="n">
         <v>0</v>
@@ -7551,7 +7551,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-806175022247280641</t>
+          <t>t-715202576552169472</t>
         </is>
       </c>
       <c r="B548" t="n">
@@ -7564,11 +7564,11 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-806834354802438144</t>
+          <t>t-730493187534413824</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C549" t="n">
         <v>1</v>
@@ -7577,7 +7577,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-855547644516732928</t>
+          <t>t-730679314916757504</t>
         </is>
       </c>
       <c r="B550" t="n">
@@ -7590,24 +7590,24 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-855563578274754560</t>
+          <t>t-737207145662435328</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-867414851802599424</t>
+          <t>t-737378615814393856</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C552" t="n">
         <v>0</v>
@@ -7616,33 +7616,33 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-886643817893560320</t>
+          <t>t-737618316705964032</t>
         </is>
       </c>
       <c r="B553" t="n">
         <v>0</v>
       </c>
       <c r="C553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-1038090181595877376</t>
+          <t>t-737643792757587968</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C554" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-938446444700237824</t>
+          <t>t-737668431374389250</t>
         </is>
       </c>
       <c r="B555" t="n">
@@ -7655,11 +7655,11 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-940225923332403204</t>
+          <t>t-737882738997530625</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C556" t="n">
         <v>1</v>
@@ -7668,11 +7668,11 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-940273268677849088</t>
+          <t>t-738072611704430592</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C557" t="n">
         <v>1</v>
@@ -7681,7 +7681,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-955806828146827266</t>
+          <t>t-738383058857021440</t>
         </is>
       </c>
       <c r="B558" t="n">
@@ -7694,20 +7694,20 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-950875222734929921</t>
+          <t>t-741709377703411712</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-950925554487738369</t>
+          <t>t-957930793187397632</t>
         </is>
       </c>
       <c r="B560" t="n">
@@ -7720,7 +7720,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-495525926722367488</t>
+          <t>t-963803678573547520</t>
         </is>
       </c>
       <c r="B561" t="n">
@@ -7733,7 +7733,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-673149443068309504</t>
+          <t>t-737669645872795648</t>
         </is>
       </c>
       <c r="B562" t="n">
@@ -7746,7 +7746,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-891629267066290176</t>
+          <t>t-890865444307042304</t>
         </is>
       </c>
       <c r="B563" t="n">
@@ -7759,7 +7759,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-498746062224375809</t>
+          <t>t-737766517157330945</t>
         </is>
       </c>
       <c r="B564" t="n">
@@ -7772,24 +7772,24 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-499104320717996032</t>
+          <t>t-737944067741454336</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C565" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-512537797442273280</t>
+          <t>t-737976116753883136</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C566" t="n">
         <v>1</v>
@@ -7798,20 +7798,20 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-537546537975685120</t>
+          <t>t-738434736910176256</t>
         </is>
       </c>
       <c r="B567" t="n">
         <v>1</v>
       </c>
       <c r="C567" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-537578272348205056</t>
+          <t>t-745170424456052736</t>
         </is>
       </c>
       <c r="B568" t="n">
@@ -7824,7 +7824,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-537578565139582976</t>
+          <t>t-1005463006455754752</t>
         </is>
       </c>
       <c r="B569" t="n">
@@ -7837,7 +7837,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-537896255347646465</t>
+          <t>t-740666936263118848</t>
         </is>
       </c>
       <c r="B570" t="n">
@@ -7850,11 +7850,11 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-556228745443282944</t>
+          <t>t-748138953241464832</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C571" t="n">
         <v>0</v>
@@ -7863,7 +7863,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-629559315221737472</t>
+          <t>t-952704809529851906</t>
         </is>
       </c>
       <c r="B572" t="n">
@@ -7876,11 +7876,11 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-648493309824925696</t>
+          <t>t-1041726034662633472</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C573" t="n">
         <v>1</v>
@@ -7889,85 +7889,85 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-658803849289990144</t>
+          <t>t-760154379307458560</t>
         </is>
       </c>
       <c r="B574" t="n">
         <v>1</v>
       </c>
       <c r="C574" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-659014102774325248</t>
+          <t>t-760176866099601408</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C575" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-686071224749821953</t>
+          <t>t-834802174559412225</t>
         </is>
       </c>
       <c r="B576" t="n">
         <v>0</v>
       </c>
       <c r="C576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-785398387059269632</t>
+          <t>t-831171283400409088</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-790900222368976896</t>
+          <t>t-834086991646048256</t>
         </is>
       </c>
       <c r="B578" t="n">
         <v>1</v>
       </c>
       <c r="C578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-790909371781746688</t>
+          <t>t-834349788053266432</t>
         </is>
       </c>
       <c r="B579" t="n">
         <v>1</v>
       </c>
       <c r="C579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-791594802844434434</t>
+          <t>t-862319925528023040</t>
         </is>
       </c>
       <c r="B580" t="n">
@@ -7980,50 +7980,50 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-806863559212679168</t>
+          <t>t-862320640791121920</t>
         </is>
       </c>
       <c r="B581" t="n">
         <v>1</v>
       </c>
       <c r="C581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-828910647861616640</t>
+          <t>t-861335479475634176</t>
         </is>
       </c>
       <c r="B582" t="n">
         <v>1</v>
       </c>
       <c r="C582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-829261659726295045</t>
+          <t>t-1019231079817973760</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-865948979183222784</t>
+          <t>t-883552231022366723</t>
         </is>
       </c>
       <c r="B584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C584" t="n">
         <v>1</v>
@@ -8032,11 +8032,11 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-910155731134853120</t>
+          <t>t-1002130830792241153</t>
         </is>
       </c>
       <c r="B585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C585" t="n">
         <v>1</v>
@@ -8045,37 +8045,37 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-910165111620329472</t>
+          <t>t-890626982773481473</t>
         </is>
       </c>
       <c r="B586" t="n">
         <v>1</v>
       </c>
       <c r="C586" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-918517038053814277</t>
+          <t>t-892499939137335296</t>
         </is>
       </c>
       <c r="B587" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C587" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-927545172220694528</t>
+          <t>t-955559981331419136</t>
         </is>
       </c>
       <c r="B588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C588" t="n">
         <v>0</v>
@@ -8084,85 +8084,85 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-927729703523270657</t>
+          <t>t-956067919263346688</t>
         </is>
       </c>
       <c r="B589" t="n">
         <v>1</v>
       </c>
       <c r="C589" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-927758071429939200</t>
+          <t>t-956083408882536448</t>
         </is>
       </c>
       <c r="B590" t="n">
         <v>1</v>
       </c>
       <c r="C590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-927766985911312384</t>
+          <t>t-953922137156411392</t>
         </is>
       </c>
       <c r="B591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-928074662826745856</t>
+          <t>t-981841496902197248</t>
         </is>
       </c>
       <c r="B592" t="n">
         <v>1</v>
       </c>
       <c r="C592" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-928076971581378560</t>
+          <t>t-1006233702052057088</t>
         </is>
       </c>
       <c r="B593" t="n">
         <v>1</v>
       </c>
       <c r="C593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-928123673919348741</t>
+          <t>t-1028077071480832000</t>
         </is>
       </c>
       <c r="B594" t="n">
         <v>1</v>
       </c>
       <c r="C594" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-928519035205095424</t>
+          <t>t-590545916886659072</t>
         </is>
       </c>
       <c r="B595" t="n">
@@ -8175,33 +8175,33 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-928568681545728000</t>
+          <t>t-678069780989870080</t>
         </is>
       </c>
       <c r="B596" t="n">
         <v>1</v>
       </c>
       <c r="C596" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-928619706227023872</t>
+          <t>t-898971629665099776</t>
         </is>
       </c>
       <c r="B597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-928900021390577664</t>
+          <t>t-956368490293800960</t>
         </is>
       </c>
       <c r="B598" t="n">
@@ -8214,24 +8214,24 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-928909590627942400</t>
+          <t>t-956387965382610945</t>
         </is>
       </c>
       <c r="B599" t="n">
         <v>1</v>
       </c>
       <c r="C599" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-928993443942105088</t>
+          <t>t-529938272265703424</t>
         </is>
       </c>
       <c r="B600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C600" t="n">
         <v>1</v>
@@ -8240,11 +8240,11 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-947798399184785408</t>
+          <t>t-557932086149918722</t>
         </is>
       </c>
       <c r="B601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C601" t="n">
         <v>0</v>
@@ -8253,24 +8253,24 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-947806740518641664</t>
+          <t>t-558466774392266752</t>
         </is>
       </c>
       <c r="B602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-947808691230822401</t>
+          <t>t-558501767688642560</t>
         </is>
       </c>
       <c r="B603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C603" t="n">
         <v>0</v>
@@ -8279,11 +8279,11 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-947833275673747457</t>
+          <t>t-558892309320724482</t>
         </is>
       </c>
       <c r="B604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C604" t="n">
         <v>1</v>
@@ -8292,37 +8292,37 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-948185680043155456</t>
+          <t>t-559263075183104000</t>
         </is>
       </c>
       <c r="B605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-948407157803728896</t>
+          <t>t-559573400780156928</t>
         </is>
       </c>
       <c r="B606" t="n">
         <v>0</v>
       </c>
       <c r="C606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-948721205443358720</t>
+          <t>t-629559315221737472</t>
         </is>
       </c>
       <c r="B607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C607" t="n">
         <v>1</v>
@@ -8331,7 +8331,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-948800260238815232</t>
+          <t>t-645961089671405568</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -8344,20 +8344,20 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-948884291743870976</t>
+          <t>t-683238954309566464</t>
         </is>
       </c>
       <c r="B609" t="n">
         <v>1</v>
       </c>
       <c r="C609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-520490218210594817</t>
+          <t>t-683901242314067968</t>
         </is>
       </c>
       <c r="B610" t="n">
@@ -8370,20 +8370,20 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-650617914194694144</t>
+          <t>t-790900222368976896</t>
         </is>
       </c>
       <c r="B611" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C611" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-732742567545077761</t>
+          <t>t-790909371781746688</t>
         </is>
       </c>
       <c r="B612" t="n">
@@ -8396,7 +8396,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-732880819631460356</t>
+          <t>t-791594802844434434</t>
         </is>
       </c>
       <c r="B613" t="n">
@@ -8409,7 +8409,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-732926405818753025</t>
+          <t>t-879622376966635521</t>
         </is>
       </c>
       <c r="B614" t="n">
@@ -8422,7 +8422,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-733131015837745153</t>
+          <t>t-879625739317854209</t>
         </is>
       </c>
       <c r="B615" t="n">
@@ -8435,11 +8435,11 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-733131209660735493</t>
+          <t>t-879987948296568834</t>
         </is>
       </c>
       <c r="B616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C616" t="n">
         <v>1</v>
@@ -8448,20 +8448,20 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-733188233803128832</t>
+          <t>t-890567544695906304</t>
         </is>
       </c>
       <c r="B617" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C617" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-733201290151514113</t>
+          <t>t-947798399184785408</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -8474,7 +8474,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-869476060991152129</t>
+          <t>t-947806740518641664</t>
         </is>
       </c>
       <c r="B619" t="n">
@@ -8487,20 +8487,20 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-948796201708675072</t>
+          <t>t-947808691230822401</t>
         </is>
       </c>
       <c r="B620" t="n">
         <v>1</v>
       </c>
       <c r="C620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-948886764244033537</t>
+          <t>t-947833275673747457</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -8513,20 +8513,20 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-985916719981060097</t>
+          <t>t-948185680043155456</t>
         </is>
       </c>
       <c r="B622" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C622" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-985984041508720641</t>
+          <t>t-948407157803728896</t>
         </is>
       </c>
       <c r="B623" t="n">
@@ -8539,20 +8539,20 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-503088287381082112</t>
+          <t>t-948721205443358720</t>
         </is>
       </c>
       <c r="B624" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C624" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-519137345065320448</t>
+          <t>t-948800260238815232</t>
         </is>
       </c>
       <c r="B625" t="n">
@@ -8565,33 +8565,33 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-545488523856338944</t>
+          <t>t-948884291743870976</t>
         </is>
       </c>
       <c r="B626" t="n">
         <v>1</v>
       </c>
       <c r="C626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-574404715376603136</t>
+          <t>t-509160710316650496</t>
         </is>
       </c>
       <c r="B627" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C627" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-581777426016956417</t>
+          <t>t-509293535221145601</t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -8604,7 +8604,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-585340196557692928</t>
+          <t>t-869476060991152129</t>
         </is>
       </c>
       <c r="B629" t="n">
@@ -8617,7 +8617,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-659219094017708032</t>
+          <t>t-922122902136172545</t>
         </is>
       </c>
       <c r="B630" t="n">
@@ -8630,7 +8630,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-669092226840981504</t>
+          <t>t-976046458834116609</t>
         </is>
       </c>
       <c r="B631" t="n">
@@ -8643,24 +8643,24 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-674612681832140800</t>
+          <t>t-659219094017708032</t>
         </is>
       </c>
       <c r="B632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-683221184775733248</t>
+          <t>t-666604346558271489</t>
         </is>
       </c>
       <c r="B633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C633" t="n">
         <v>1</v>
@@ -8669,7 +8669,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-708275780988473345</t>
+          <t>t-667233953934282752</t>
         </is>
       </c>
       <c r="B634" t="n">
@@ -8682,7 +8682,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-709001129091174403</t>
+          <t>t-674612681832140800</t>
         </is>
       </c>
       <c r="B635" t="n">
@@ -8695,7 +8695,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-709281433978687488</t>
+          <t>t-733931111152123906</t>
         </is>
       </c>
       <c r="B636" t="n">
@@ -8708,20 +8708,20 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-718078465698881536</t>
+          <t>t-734714075603718144</t>
         </is>
       </c>
       <c r="B637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-718738885862232064</t>
+          <t>t-734767651981905921</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -8734,7 +8734,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-718790966774083584</t>
+          <t>t-735043937040093185</t>
         </is>
       </c>
       <c r="B639" t="n">
@@ -8747,7 +8747,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-784943243364487168</t>
+          <t>t-740813200766214144</t>
         </is>
       </c>
       <c r="B640" t="n">
@@ -8760,7 +8760,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-785071804276576256</t>
+          <t>t-769774311968079872</t>
         </is>
       </c>
       <c r="B641" t="n">
@@ -8773,7 +8773,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-786121283209564160</t>
+          <t>t-789409624138985476</t>
         </is>
       </c>
       <c r="B642" t="n">
@@ -8786,7 +8786,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-787201722892455936</t>
+          <t>t-789409631646785537</t>
         </is>
       </c>
       <c r="B643" t="n">
@@ -8799,20 +8799,20 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-787228854490243072</t>
+          <t>t-792955986956824576</t>
         </is>
       </c>
       <c r="B644" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C644" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-799522784040849408</t>
+          <t>t-793029205319491584</t>
         </is>
       </c>
       <c r="B645" t="n">
@@ -8825,7 +8825,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-857545859868708865</t>
+          <t>t-793055195232018432</t>
         </is>
       </c>
       <c r="B646" t="n">
@@ -8838,7 +8838,7 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-918078962173075457</t>
+          <t>t-794478910901624834</t>
         </is>
       </c>
       <c r="B647" t="n">
@@ -8851,7 +8851,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-918257100547014658</t>
+          <t>t-794502218061750272</t>
         </is>
       </c>
       <c r="B648" t="n">
@@ -8864,20 +8864,20 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-924905228415193088</t>
+          <t>t-828522614863785984</t>
         </is>
       </c>
       <c r="B649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-1061598368164528128</t>
+          <t>t-870517868831449088</t>
         </is>
       </c>
       <c r="B650" t="n">
@@ -8890,7 +8890,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-1061625768696930304</t>
+          <t>t-880004628884013057</t>
         </is>
       </c>
       <c r="B651" t="n">
@@ -8903,7 +8903,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-1061782167494320130</t>
+          <t>t-960348165114273792</t>
         </is>
       </c>
       <c r="B652" t="n">
@@ -8916,7 +8916,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-1062219458046058496</t>
+          <t>t-987647411144220672</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -8929,7 +8929,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-756176490119647232</t>
+          <t>t-548367743385624577</t>
         </is>
       </c>
       <c r="B654" t="n">
@@ -8942,7 +8942,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-839656521227091969</t>
+          <t>t-563978477183840256</t>
         </is>
       </c>
       <c r="B655" t="n">
@@ -8955,20 +8955,20 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-1062500554134310912</t>
+          <t>t-723687727468683264</t>
         </is>
       </c>
       <c r="B656" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C656" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-621352736672473089</t>
+          <t>t-723764446498152448</t>
         </is>
       </c>
       <c r="B657" t="n">
@@ -8981,20 +8981,20 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-621526313216536576</t>
+          <t>t-546954418067738625</t>
         </is>
       </c>
       <c r="B658" t="n">
         <v>1</v>
       </c>
       <c r="C658" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-621967424384925696</t>
+          <t>t-547052080943214593</t>
         </is>
       </c>
       <c r="B659" t="n">
@@ -9007,7 +9007,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-678547534269177856</t>
+          <t>t-547052404026249217</t>
         </is>
       </c>
       <c r="B660" t="n">
@@ -9020,7 +9020,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-846329507103436800</t>
+          <t>t-547288951820521472</t>
         </is>
       </c>
       <c r="B661" t="n">
@@ -9033,7 +9033,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-936830929384828928</t>
+          <t>t-547333815882887168</t>
         </is>
       </c>
       <c r="B662" t="n">
@@ -9046,7 +9046,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-936988511051292672</t>
+          <t>t-547368132457689088</t>
         </is>
       </c>
       <c r="B663" t="n">
@@ -9059,7 +9059,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-523431319012139009</t>
+          <t>t-547431547935412224</t>
         </is>
       </c>
       <c r="B664" t="n">
@@ -9072,11 +9072,11 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-780295387017949184</t>
+          <t>t-547610562692009985</t>
         </is>
       </c>
       <c r="B665" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C665" t="n">
         <v>1</v>
@@ -9085,37 +9085,37 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-527311291191263232</t>
+          <t>t-547694551637700608</t>
         </is>
       </c>
       <c r="B666" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C666" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-555323393890058240</t>
+          <t>t-555289784240054272</t>
         </is>
       </c>
       <c r="B667" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C667" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-555327376440053760</t>
+          <t>t-555290912268750848</t>
         </is>
       </c>
       <c r="B668" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C668" t="n">
         <v>1</v>
@@ -9124,7 +9124,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-664089575191478272</t>
+          <t>t-555447424768954368</t>
         </is>
       </c>
       <c r="B669" t="n">
@@ -9137,7 +9137,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-825956164366172160</t>
+          <t>t-592295516517502976</t>
         </is>
       </c>
       <c r="B670" t="n">
@@ -9150,7 +9150,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-825956302023163905</t>
+          <t>t-788398448508739585</t>
         </is>
       </c>
       <c r="B671" t="n">
@@ -9163,7 +9163,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-825967811814125568</t>
+          <t>t-788457694453637120</t>
         </is>
       </c>
       <c r="B672" t="n">
@@ -9176,11 +9176,11 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-825983840988467200</t>
+          <t>t-802829831633108992</t>
         </is>
       </c>
       <c r="B673" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C673" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-969977636670918656</t>
+          <t>t-551339874838908928</t>
         </is>
       </c>
       <c r="B674" t="n">
@@ -9202,20 +9202,20 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-558428892898131968</t>
+          <t>t-791933405902442497</t>
         </is>
       </c>
       <c r="B675" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C675" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-558596887519850496</t>
+          <t>t-694164443224154112</t>
         </is>
       </c>
       <c r="B676" t="n">
@@ -9228,11 +9228,11 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-673010347008110593</t>
+          <t>t-694343886626394113</t>
         </is>
       </c>
       <c r="B677" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C677" t="n">
         <v>1</v>
@@ -9241,7 +9241,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-694769781573050368</t>
+          <t>t-694445663426207744</t>
         </is>
       </c>
       <c r="B678" t="n">
@@ -9254,20 +9254,20 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-697703131493355520</t>
+          <t>t-740483903366926337</t>
         </is>
       </c>
       <c r="B679" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C679" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-698358832959873025</t>
+          <t>t-799444908029284352</t>
         </is>
       </c>
       <c r="B680" t="n">
@@ -9280,11 +9280,11 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-757365069608923136</t>
+          <t>t-799480577057583104</t>
         </is>
       </c>
       <c r="B681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C681" t="n">
         <v>0</v>
@@ -9293,7 +9293,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-922457591313137664</t>
+          <t>t-969977636670918656</t>
         </is>
       </c>
       <c r="B682" t="n">
@@ -9306,24 +9306,24 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-922793297873010689</t>
+          <t>t-666809196977909760</t>
         </is>
       </c>
       <c r="B683" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C683" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-557096941750743040</t>
+          <t>t-673010347008110593</t>
         </is>
       </c>
       <c r="B684" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C684" t="n">
         <v>1</v>
@@ -9332,7 +9332,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-816403303852425216</t>
+          <t>t-833843048253681665</t>
         </is>
       </c>
       <c r="B685" t="n">
@@ -9345,7 +9345,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-536910791295778816</t>
+          <t>t-834648744150892546</t>
         </is>
       </c>
       <c r="B686" t="n">
@@ -9358,7 +9358,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-562992622130954243</t>
+          <t>t-540747270207991808</t>
         </is>
       </c>
       <c r="B687" t="n">
@@ -9371,7 +9371,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-636337860757483520</t>
+          <t>t-695999176518184960</t>
         </is>
       </c>
       <c r="B688" t="n">
@@ -9384,20 +9384,20 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-709944298301628416</t>
+          <t>t-702026039967531008</t>
         </is>
       </c>
       <c r="B689" t="n">
         <v>0</v>
       </c>
       <c r="C689" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-723151439586013184</t>
+          <t>t-785106169677230080</t>
         </is>
       </c>
       <c r="B690" t="n">
@@ -9410,7 +9410,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-773077201063407617</t>
+          <t>t-785108107227561984</t>
         </is>
       </c>
       <c r="B691" t="n">
@@ -9423,7 +9423,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-965551093982769152</t>
+          <t>t-785110315553787904</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -9436,7 +9436,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-544801968703557632</t>
+          <t>t-785111654228856832</t>
         </is>
       </c>
       <c r="B693" t="n">
@@ -9449,7 +9449,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-692022677649797120</t>
+          <t>t-785153740848308225</t>
         </is>
       </c>
       <c r="B694" t="n">
@@ -9462,37 +9462,37 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-734985227739619329</t>
+          <t>t-785284230573993984</t>
         </is>
       </c>
       <c r="B695" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C695" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-984973285124222976</t>
+          <t>t-785337680368467968</t>
         </is>
       </c>
       <c r="B696" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C696" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-993018034288705536</t>
+          <t>t-785343194607202304</t>
         </is>
       </c>
       <c r="B697" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C697" t="n">
         <v>1</v>
@@ -9501,7 +9501,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-908138128514437120</t>
+          <t>t-785389967123984386</t>
         </is>
       </c>
       <c r="B698" t="n">
@@ -9514,20 +9514,20 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-564756286211100672</t>
+          <t>t-786190856218746880</t>
         </is>
       </c>
       <c r="B699" t="n">
         <v>1</v>
       </c>
       <c r="C699" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-565303060420112386</t>
+          <t>t-786491706409492481</t>
         </is>
       </c>
       <c r="B700" t="n">
@@ -9540,7 +9540,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-565336619021262848</t>
+          <t>t-787902147698450432</t>
         </is>
       </c>
       <c r="B701" t="n">
@@ -9553,20 +9553,20 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-579496758595584000</t>
+          <t>t-787981561949921280</t>
         </is>
       </c>
       <c r="B702" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C702" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-706439330877714432</t>
+          <t>t-964122358905823232</t>
         </is>
       </c>
       <c r="B703" t="n">
@@ -9579,7 +9579,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-935764445632061440</t>
+          <t>t-966989390873378816</t>
         </is>
       </c>
       <c r="B704" t="n">
@@ -9592,24 +9592,24 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-940363500475465728</t>
+          <t>t-809685070428524546</t>
         </is>
       </c>
       <c r="B705" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C705" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-962542177514500096</t>
+          <t>t-820399938416754688</t>
         </is>
       </c>
       <c r="B706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C706" t="n">
         <v>1</v>
@@ -9618,46 +9618,46 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-936534965277294597</t>
+          <t>t-1039555557609201664</t>
         </is>
       </c>
       <c r="B707" t="n">
         <v>1</v>
       </c>
       <c r="C707" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-936606274795462656</t>
+          <t>t-796490215078711296</t>
         </is>
       </c>
       <c r="B708" t="n">
         <v>1</v>
       </c>
       <c r="C708" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-950566545595551745</t>
+          <t>t-812248571802025984</t>
         </is>
       </c>
       <c r="B709" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C709" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-729180420265279489</t>
+          <t>t-950631505486737408</t>
         </is>
       </c>
       <c r="B710" t="n">
@@ -9670,7 +9670,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-729281192772542465</t>
+          <t>t-950698684148142080</t>
         </is>
       </c>
       <c r="B711" t="n">
@@ -9683,7 +9683,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-932461262268661760</t>
+          <t>t-706439330877714432</t>
         </is>
       </c>
       <c r="B712" t="n">
@@ -9696,7 +9696,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-932590015711993858</t>
+          <t>t-839272244895309824</t>
         </is>
       </c>
       <c r="B713" t="n">
@@ -9709,7 +9709,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-932596112241786880</t>
+          <t>t-1016952321333497856</t>
         </is>
       </c>
       <c r="B714" t="n">
@@ -9722,11 +9722,11 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-932690981908074496</t>
+          <t>t-698712295900229633</t>
         </is>
       </c>
       <c r="B715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C715" t="n">
         <v>1</v>
@@ -9735,24 +9735,24 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-932881287005835264</t>
+          <t>t-729180420265279489</t>
         </is>
       </c>
       <c r="B716" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C716" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-566151747232489472</t>
+          <t>t-729281192772542465</t>
         </is>
       </c>
       <c r="B717" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C717" t="n">
         <v>1</v>
@@ -9761,33 +9761,33 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-584288298249531392</t>
+          <t>t-605944627380817920</t>
         </is>
       </c>
       <c r="B718" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C718" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-605944627380817920</t>
+          <t>t-677428252881784832</t>
         </is>
       </c>
       <c r="B719" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C719" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-702366811925438465</t>
+          <t>t-802066289527095297</t>
         </is>
       </c>
       <c r="B720" t="n">
@@ -9800,7 +9800,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-802066289527095297</t>
+          <t>t-802114052063252481</t>
         </is>
       </c>
       <c r="B721" t="n">
@@ -9813,24 +9813,24 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-802114052063252481</t>
+          <t>t-998772384076320768</t>
         </is>
       </c>
       <c r="B722" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C722" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-819830340390830081</t>
+          <t>t-998825906733920257</t>
         </is>
       </c>
       <c r="B723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C723" t="n">
         <v>1</v>
@@ -9839,11 +9839,11 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-639809419102937088</t>
+          <t>t-1016913242839367680</t>
         </is>
       </c>
       <c r="B724" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C724" t="n">
         <v>1</v>
@@ -9852,20 +9852,20 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-685863458978443264</t>
+          <t>t-590978217546092544</t>
         </is>
       </c>
       <c r="B725" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C725" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-737450472194211841</t>
+          <t>t-610619808913076224</t>
         </is>
       </c>
       <c r="B726" t="n">
@@ -9878,7 +9878,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-737498199435317252</t>
+          <t>t-639809419102937088</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -9891,7 +9891,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-780951872647475200</t>
+          <t>t-786434119072821249</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -9904,7 +9904,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-964014223184375808</t>
+          <t>t-760724447745699841</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -9917,7 +9917,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-797677972547219456</t>
+          <t>t-780951872647475200</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -9930,13 +9930,39 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
+          <t>t-798490523820380160</t>
+        </is>
+      </c>
+      <c r="B731" t="n">
+        <v>1</v>
+      </c>
+      <c r="C731" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>t-833862725059031044</t>
+        </is>
+      </c>
+      <c r="B732" t="n">
+        <v>1</v>
+      </c>
+      <c r="C732" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
           <t>t-833891988315336704</t>
         </is>
       </c>
-      <c r="B731" t="n">
-        <v>1</v>
-      </c>
-      <c r="C731" t="n">
+      <c r="B733" t="n">
+        <v>1</v>
+      </c>
+      <c r="C733" t="n">
         <v>1</v>
       </c>
     </row>
